--- a/biology/Médecine/Articulation_interphalangienne_de_la_main/Articulation_interphalangienne_de_la_main.xlsx
+++ b/biology/Médecine/Articulation_interphalangienne_de_la_main/Articulation_interphalangienne_de_la_main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations interphalangiennes de la main sont les articulations qui unissent les phalanges de la main.
 </t>
@@ -511,19 +523,91 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque doigt, sauf le pouce, possède deux articulations interphalangiennes :
 une articulation interphalangienne proximale entre la phalange proximale et la phalange moyenne,
 une articulation interphalangienne distale entre la phalange moyenne et la phalange distale.
 Le pouce n'a qu'une articulation interphalangienne entre la phalange proximale et la phalange distale.
-Anatomiquement, les articulations interphalangiennes proximale et distale sont très similaires. Il existe quelques différences mineures dans la façon dont les plaques palmaires sont attachées de manière proximale et dans la segmentation de la gaine du tendon fléchisseur, mais les différences majeures sont une plus petite taille et une mobilité réduite de l'articulation distale[1].
+Anatomiquement, les articulations interphalangiennes proximale et distale sont très similaires. Il existe quelques différences mineures dans la façon dont les plaques palmaires sont attachées de manière proximale et dans la segmentation de la gaine du tendon fléchisseur, mais les différences majeures sont une plus petite taille et une mobilité réduite de l'articulation distale.
 Les articulations interphalangiennes sont des ginglymes.
-Surfaces articulaires
-Les surfaces articulaires sont constituées d'une trochlée sur les têtes des phalanges et de deux cavités glénoïdes sur les bases des phalanges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Articulation_interphalangienne_de_la_main</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_interphalangienne_de_la_main</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les surfaces articulaires sont constituées d'une trochlée sur les têtes des phalanges et de deux cavités glénoïdes sur les bases des phalanges.
 Les plaques palmaires agrandissent les cavités glénoïdes à l'avant.
-Moyens d'union
-Les articulations interphalangiennes sont maintenues par une capsule articulaire fines et lâche à l'arrière et épaisse à l'avant pour limiter l'hyperextension.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Articulation_interphalangienne_de_la_main</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_interphalangienne_de_la_main</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les articulations interphalangiennes sont maintenues par une capsule articulaire fines et lâche à l'arrière et épaisse à l'avant pour limiter l'hyperextension.
 Chaque articulation interphalangienne possède à l'avant une plaque palmaire et deux ligaments collatéraux : un médial et un latéral.
 Les ligaments collatéraux sont composés de deux faisceaux :
 un faisceau principal qui relie le tubercule latéral ou médial de la tête de la phalange la plus proximale aux tubercule respectif de la tête de la phalange la plus distale,
@@ -533,69 +617,108 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Articulation_interphalangienne_de_la_main</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_interphalangienne_de_la_main</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations interphalangiennes ont un degré de liberté et ne permettent que le mouvement de flexion/extension.
 L'articulation proximale permet une flexion de 100 à 120°, la distale de 80°. L'extension est limitée à 5°.
-L'articulation proximale possède une grande stabilité latérale grâce à son diamètre transversal supérieur à son diamètre antéro-postérieur et ses épais ligaments collatéraux tendus dans toutes les positions lors de la flexion, contrairement à ceux des articulations métacarpo-phalangiennes[1].
-Motricité musculaire
-Les muscles qui génèrent ces mouvements sont :
+L'articulation proximale possède une grande stabilité latérale grâce à son diamètre transversal supérieur à son diamètre antéro-postérieur et ses épais ligaments collatéraux tendus dans toutes les positions lors de la flexion, contrairement à ceux des articulations métacarpo-phalangiennes.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Articulation_interphalangienne_de_la_main</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_interphalangienne_de_la_main</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie fonctionnelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Motricité musculaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles qui génèrent ces mouvements sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Articulation_interphalangienne_de_la_main</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_interphalangienne_de_la_main</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations interphalangiennes sont exposées à des luxations et à des entorses, les plus touchées étant les proximales. Elles peuvent entraîner une lésion de la plaque palmaire.
-La polyarthrite rhumatoïde épargne généralement les articulations interphalangiennes distales[2]. Par conséquent, l'arthrite des articulations interphalangiennes distales suggère plutôt une arthrose ou un rhumatisme psoriasique[3].
+La polyarthrite rhumatoïde épargne généralement les articulations interphalangiennes distales. Par conséquent, l'arthrite des articulations interphalangiennes distales suggère plutôt une arthrose ou un rhumatisme psoriasique.
 </t>
         </is>
       </c>
